--- a/biology/Médecine/Hans_Saenger/Hans_Saenger.xlsx
+++ b/biology/Médecine/Hans_Saenger/Hans_Saenger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Saenger, aussi nommé Hans Sänger, né le 30 novembre 1884 à Leipzig et mort le 18 mars 1943, est un professeur de gynécologie-obstétrique allemand. 
 Issu d'une famille juive, il fut démis par la Loi allemande sur la restauration de la fonction publique du 7 avril 1933 de ses fonctions de l'Université de Munich et s'est exilé en Norvège en 1934.
@@ -512,9 +524,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa mère, Helga, était norvégienne (née Vaagaard) et issue d'une famille d'agriculteurs de Ringerike. Son père Max Sänger fût l'un des gynécologues les plus renommé d'Allemagne à la fin du XIXe siècle, son nom est notamment associé à une amélioration de la technique de la césarienne. Helga et Max Sänger dirigeaient à Leipzig une maison hospitalière pour Norvégiens, qui fût fréquentée entre autres par le couple de musiciens Edvard et Nina Grieg, ainsi que le mathématicien Sophus Lie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa mère, Helga, était norvégienne (née Vaagaard) et issue d'une famille d'agriculteurs de Ringerike. Son père Max Sänger fût l'un des gynécologues les plus renommé d'Allemagne à la fin du XIXe siècle, son nom est notamment associé à une amélioration de la technique de la césarienne. Helga et Max Sänger dirigeaient à Leipzig une maison hospitalière pour Norvégiens, qui fût fréquentée entre autres par le couple de musiciens Edvard et Nina Grieg, ainsi que le mathématicien Sophus Lie.
 Il a appris à parler norvégien dans son enfance durant laquelle il s'est rendu régulièrement au domaine familial situé à Åsgårdstrand.
 </t>
         </is>
@@ -544,12 +558,14 @@
           <t>Carrière universitaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Saenger a commencé à étudier la médecine à Prague en 1904, puis s'est inscrit à l'Université Kristiania d'Oslo en 1908. Il a obtenu son examen médical officiel à l'Université de Munich en 1910.
 Il choisit ensuite la gynécologie et l'obstétrique, le domaine d'expertise de son père. Il fut admis à la Clinique universitaire gynécologique de Munich, la plus grande d'Allemagne à l'époque, dirigée par le professeur Albert Döderlein.
 Pendant la Première Guerre mondiale, il a servi comme chirurgien sur le front occidental. Après, il est revenu à Munich où il reste jusqu'en 1933.
-En 1929, il a postulé pour le poste de professeur vacant en obstétrique et maladies féminines à l'Université d'Oslo, mais sa candidature a été refusée[1].
+En 1929, il a postulé pour le poste de professeur vacant en obstétrique et maladies féminines à l'Université d'Oslo, mais sa candidature a été refusée.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Exil en Norvège</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1930, la politique norvégienne en matière d'accueil de réfugiés et de l'octroi de permis de séjour aux réfugiés juifs d'Allemagne était très restrictives.
 En 1934, Hans Saenger a quitté Munich avec sa famille. Ils furent conduit à Hambourg par son ami proche Jakob Werlin (en), dirigeant de l'entreprise automobile Benz &amp; Cie et conseiller d'Hitler sur les questions automobiles, qui les conduisit à Hambourg "pour qu'ils évitent les désagréments". Par la suite, il leur rendit visite à Fredrikstad à trois reprises.
@@ -613,7 +631,9 @@
           <t>Publications scientifiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>En tant que scientifique, Hans Saenger a soutenu en 1922 sa thèse sur le développement des hémorragies intracrâniennes chez le nouveau-né, basée sur les résultats d'une série d'autopsies pratiquées sur cent nouveau-nés. En 1924, il a publié le résultat de ses travaux dans trois revues scientifiques allemandes.
 1923 : (de) Hans Saenger, « Über die Entstehung der intrakraniellen Blutungen beim Neugeborenen. », Archiv für Gynakologie,‎ 1923
